--- a/Накладная pizza АДК №220.xlsx
+++ b/Накладная pizza АДК №220.xlsx
@@ -15,12 +15,12 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
   <si>
     <t>Приложение 26</t>
   </si>
@@ -365,12 +365,6 @@
   </si>
   <si>
     <t>00000000186</t>
-  </si>
-  <si>
-    <t>Базилик</t>
-  </si>
-  <si>
-    <t>00000000190</t>
   </si>
   <si>
     <t>Картофель</t>
@@ -457,7 +451,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>двадцать семь</t>
+      <t>двадцать шесть</t>
     </r>
   </si>
   <si>
@@ -473,7 +467,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> сорок шесть тысяч двести тридцать четыре тенге</t>
+      <t xml:space="preserve"> сорок две тысячи девятьсот восемьдесят девять тенге</t>
     </r>
     <r>
       <rPr>
@@ -831,25 +825,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -860,6 +835,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,10 +1162,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J59"/>
+  <dimension ref="B1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1195,10 +1189,10 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="47"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -1208,10 +1202,10 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="47"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -1221,10 +1215,10 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1234,10 +1228,10 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -1338,42 +1332,42 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="41" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="41" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="42"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="42"/>
+      <c r="J13" s="46"/>
     </row>
     <row r="14" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="41" t="s">
+      <c r="E14" s="46"/>
+      <c r="F14" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="42"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
@@ -1387,46 +1381,46 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
@@ -1472,14 +1466,14 @@
         <v>3</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" ref="G19:G25" si="0">F19</f>
+        <f t="shared" ref="G19:G24" si="0">F19</f>
         <v>3</v>
       </c>
       <c r="H19" s="14">
         <v>1000</v>
       </c>
       <c r="I19" s="15">
-        <f t="shared" ref="I19:I25" si="1">G19*H19</f>
+        <f t="shared" ref="I19:I24" si="1">G19*H19</f>
         <v>3000</v>
       </c>
       <c r="J19" s="11"/>
@@ -1518,27 +1512,27 @@
         <v>3</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G21" s="13">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H21" s="14">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="1"/>
-        <v>390</v>
+        <v>2000</v>
       </c>
       <c r="J21" s="11"/>
     </row>
@@ -1547,27 +1541,27 @@
         <v>4</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F22" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="14">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="J22" s="11"/>
     </row>
@@ -1576,27 +1570,27 @@
         <v>5</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F23" s="13">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H23" s="14">
-        <v>1400</v>
+        <v>450</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="1"/>
-        <v>5600</v>
+        <v>585</v>
       </c>
       <c r="J23" s="11"/>
     </row>
@@ -1605,27 +1599,27 @@
         <v>6</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="13">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H24" s="14">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="1"/>
-        <v>585</v>
+        <v>1080</v>
       </c>
       <c r="J24" s="11"/>
     </row>
@@ -1643,18 +1637,18 @@
         <v>26</v>
       </c>
       <c r="F25" s="13">
-        <v>6</v>
+        <v>0.37</v>
       </c>
       <c r="G25" s="13">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="G25:G27" si="2">F25</f>
+        <v>0.37</v>
       </c>
       <c r="H25" s="14">
-        <v>180</v>
+        <v>1800</v>
       </c>
       <c r="I25" s="15">
-        <f t="shared" si="1"/>
-        <v>1080</v>
+        <f t="shared" ref="I25:I27" si="3">G25*H25</f>
+        <v>666</v>
       </c>
       <c r="J25" s="11"/>
     </row>
@@ -1672,18 +1666,18 @@
         <v>26</v>
       </c>
       <c r="F26" s="13">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="G26" s="13">
-        <f t="shared" ref="G26:G28" si="2">F26</f>
-        <v>0.37</v>
+        <f t="shared" si="2"/>
+        <v>0.35</v>
       </c>
       <c r="H26" s="14">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" ref="I26:I28" si="3">G26*H26</f>
-        <v>666</v>
+        <f t="shared" si="3"/>
+        <v>1470</v>
       </c>
       <c r="J26" s="11"/>
     </row>
@@ -1692,27 +1686,27 @@
         <v>9</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="13">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="H27" s="14">
-        <v>4200</v>
+        <v>1200</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="3"/>
-        <v>1470</v>
+        <v>720</v>
       </c>
       <c r="J27" s="11"/>
     </row>
@@ -1721,27 +1715,27 @@
         <v>10</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
+        <f t="shared" ref="G28:G44" si="4">F28</f>
+        <v>0.5</v>
       </c>
       <c r="H28" s="14">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="3"/>
-        <v>720</v>
+        <f t="shared" ref="I28:I44" si="5">G28*H28</f>
+        <v>225</v>
       </c>
       <c r="J28" s="11"/>
     </row>
@@ -1750,27 +1744,27 @@
         <v>11</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13">
-        <f t="shared" ref="G29:G45" si="4">F29</f>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="H29" s="14">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" ref="I29:I45" si="5">G29*H29</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>140</v>
       </c>
       <c r="J29" s="11"/>
     </row>
@@ -1779,10 +1773,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>26</v>
@@ -1795,11 +1789,11 @@
         <v>1</v>
       </c>
       <c r="H30" s="14">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="J30" s="11"/>
     </row>
@@ -1808,56 +1802,56 @@
         <v>13</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G31" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H31" s="14">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="5"/>
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <v>14</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>124</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F32" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G32" s="13">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H32" s="14">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>750</v>
       </c>
       <c r="J32" s="11"/>
     </row>
@@ -1866,13 +1860,13 @@
         <v>15</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F33" s="13">
         <v>1</v>
@@ -1882,11 +1876,11 @@
         <v>1</v>
       </c>
       <c r="H33" s="14">
-        <v>750</v>
+        <v>7500</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="5"/>
-        <v>750</v>
+        <v>7500</v>
       </c>
       <c r="J33" s="11"/>
     </row>
@@ -1895,27 +1889,27 @@
         <v>16</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="13">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G34" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" ref="G34:G36" si="6">F34</f>
+        <v>0.15</v>
       </c>
       <c r="H34" s="14">
-        <v>7500</v>
+        <v>1100</v>
       </c>
       <c r="I34" s="15">
-        <f t="shared" si="5"/>
-        <v>7500</v>
+        <f t="shared" ref="I34:I36" si="7">G34*H34</f>
+        <v>165</v>
       </c>
       <c r="J34" s="11"/>
     </row>
@@ -1924,27 +1918,27 @@
         <v>17</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="13">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="13">
-        <f t="shared" ref="G35:G37" si="6">F35</f>
-        <v>0.2</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="H35" s="14">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="I35" s="15">
-        <f t="shared" ref="I35:I37" si="7">G35*H35</f>
-        <v>220</v>
+        <f t="shared" si="7"/>
+        <v>2700</v>
       </c>
       <c r="J35" s="11"/>
     </row>
@@ -1953,27 +1947,27 @@
         <v>18</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F36" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" s="13">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" s="14">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="7"/>
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="J36" s="11"/>
     </row>
@@ -1988,21 +1982,21 @@
         <v>130</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F37" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G37" s="13">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.6</v>
       </c>
       <c r="H37" s="14">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="I37" s="15">
-        <f t="shared" si="7"/>
-        <v>2400</v>
+        <f t="shared" si="5"/>
+        <v>600</v>
       </c>
       <c r="J37" s="11"/>
     </row>
@@ -2020,18 +2014,18 @@
         <v>26</v>
       </c>
       <c r="F38" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="G38" s="13">
         <f t="shared" si="4"/>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H38" s="14">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" si="5"/>
-        <v>600</v>
+        <v>225</v>
       </c>
       <c r="J38" s="11"/>
     </row>
@@ -2040,27 +2034,27 @@
         <v>21</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="13">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" si="4"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H39" s="14">
-        <v>750</v>
+        <v>2200</v>
       </c>
       <c r="I39" s="15">
         <f t="shared" si="5"/>
-        <v>225</v>
+        <v>4400</v>
       </c>
       <c r="J39" s="11"/>
     </row>
@@ -2069,27 +2063,27 @@
         <v>22</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F40" s="13">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="G40" s="13">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H40" s="14">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="I40" s="15">
         <f t="shared" si="5"/>
-        <v>4400</v>
+        <v>560</v>
       </c>
       <c r="J40" s="11"/>
     </row>
@@ -2104,21 +2098,21 @@
         <v>136</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F41" s="13">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="G41" s="13">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H41" s="14">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="I41" s="15">
         <f t="shared" si="5"/>
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="J41" s="11"/>
     </row>
@@ -2127,27 +2121,27 @@
         <v>24</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="F42" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42" s="13">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" s="14">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="I42" s="15">
         <f t="shared" si="5"/>
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="J42" s="11"/>
     </row>
@@ -2156,27 +2150,27 @@
         <v>25</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F43" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43" s="13">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H43" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="I43" s="15">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="J43" s="11"/>
     </row>
@@ -2185,196 +2179,180 @@
         <v>26</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F44" s="13">
-        <v>2</v>
+        <v>0.51</v>
       </c>
       <c r="G44" s="13">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0.51</v>
       </c>
       <c r="H44" s="14">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="I44" s="15">
         <f t="shared" si="5"/>
-        <v>3200</v>
+        <v>918</v>
       </c>
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8">
-        <v>27</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="13">
-        <v>0.51</v>
-      </c>
-      <c r="G45" s="13">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
-      </c>
-      <c r="H45" s="14">
-        <v>1800</v>
-      </c>
-      <c r="I45" s="15">
-        <f t="shared" si="5"/>
-        <v>918</v>
-      </c>
-      <c r="J45" s="11"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19">
+        <f>SUM(G25:G44)</f>
+        <v>22.280000000000005</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20">
+        <f>SUM(I19:I44)</f>
+        <v>42989</v>
+      </c>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19">
-        <f>SUM(G26:G45)</f>
-        <v>22.330000000000002</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20">
-        <f>SUM(I19:I45)</f>
-        <v>46234</v>
-      </c>
-      <c r="J46" s="18"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="B47" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="22"/>
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="B49" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
-      <c r="C51" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="25" t="s">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+    </row>
+    <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="D53" s="1"/>
+      <c r="E53" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-    </row>
-    <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="31" t="s">
-        <v>39</v>
-      </c>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
-      <c r="C54" s="25" t="s">
-        <v>35</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="26" t="s">
-        <v>36</v>
-      </c>
+      <c r="E54" s="27"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
+      <c r="B55" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="27"/>
@@ -2385,9 +2363,7 @@
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="27"/>
@@ -2398,65 +2374,43 @@
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>42</v>
+      </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>42</v>
-      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="53"/>
-    </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="C59" s="25" t="s">
+      <c r="H58" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="25" t="s">
+      <c r="I58" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I59" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="J59" s="51"/>
+      <c r="J58" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="D14:E14"/>
@@ -2469,6 +2423,17 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
